--- a/UCB.xlsx
+++ b/UCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A44EBD-AAD9-42D1-B769-DB7DCB5D5019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDFBA55-BFBB-4558-944B-DF81187ACE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,21 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Bimzelx" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -429,12 +440,12 @@
   <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
@@ -461,7 +472,7 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="L3" t="s">
